--- a/medicine/Premiers secours et secourisme/Balise_Spot/Balise_Spot.xlsx
+++ b/medicine/Premiers secours et secourisme/Balise_Spot/Balise_Spot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une balise SPOT (Satellite Personal Tracker) est un dispositif portable incluant un récepteur GPS (Global Positioning System) et un système de communication par satellite destiné à permettre la localisation d'une personne nécessitant une assistance. Cet appareil est fabriqué par Axonn LLC[1] et commercialisé par la société SPOT Inc., une filiale de Globalstar Inc[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une balise SPOT (Satellite Personal Tracker) est un dispositif portable incluant un récepteur GPS (Global Positioning System) et un système de communication par satellite destiné à permettre la localisation d'une personne nécessitant une assistance. Cet appareil est fabriqué par Axonn LLC et commercialisé par la société SPOT Inc., une filiale de Globalstar Inc.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour déterminer sa position, la balise SPOT intègre une puce GPS et une antenne. Le réseau de satellite Globalstar est ensuite utilisé par une transmission à sens unique de tous les messages incluant la position. La balise peut fonctionner partout dans le monde à condition d'avoir une vue dégagée d'un satellite du réseau Globalstar. Le signal peut ne pas être transmis si la balise est placée dans une poche, un véhicule, sous un feuillage dense ou entre des bâtiments élevés[3],[4]. La balise va répéter la transmission de ces messages de secours à un intervalle prédéfini jusqu'à ce que l'utilisateur stoppe l'émission, éteigne la balise ou que les batteries se vident. Les capacités de transmission de la balise SPOT est à sens unique, ainsi la balise n'est pas capable de confirmer à l'utilisateur la bonne réception d'un message de secours[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour déterminer sa position, la balise SPOT intègre une puce GPS et une antenne. Le réseau de satellite Globalstar est ensuite utilisé par une transmission à sens unique de tous les messages incluant la position. La balise peut fonctionner partout dans le monde à condition d'avoir une vue dégagée d'un satellite du réseau Globalstar. Le signal peut ne pas être transmis si la balise est placée dans une poche, un véhicule, sous un feuillage dense ou entre des bâtiments élevés,. La balise va répéter la transmission de ces messages de secours à un intervalle prédéfini jusqu'à ce que l'utilisateur stoppe l'émission, éteigne la balise ou que les batteries se vident. Les capacités de transmission de la balise SPOT est à sens unique, ainsi la balise n'est pas capable de confirmer à l'utilisateur la bonne réception d'un message de secours,.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Fonctionnalités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fonctionnalités incluses sont :
 alerte 911, pour demander une assistance d'urgence à un service spécialisé ;
